--- a/Data/EC/NIT-9003845146.xlsx
+++ b/Data/EC/NIT-9003845146.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1E74169B-A99D-4B6C-A2CB-F15B78B73B37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{91DEDE48-009A-4126-B2BF-583BECF62C71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{56E725E3-1C6E-492F-AD03-7294B77EBF0F}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{03614F90-F468-4B88-86D2-0B351DC1C604}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="61">
   <si>
     <t>Tipo Doc Trabajador</t>
   </si>
@@ -65,142 +65,127 @@
     <t>CC</t>
   </si>
   <si>
-    <t>73135810</t>
-  </si>
-  <si>
-    <t>SANTIAGO ELIAS VASQUEZ BARRAZA</t>
-  </si>
-  <si>
-    <t>2212</t>
-  </si>
-  <si>
-    <t>2211</t>
-  </si>
-  <si>
-    <t>2210</t>
+    <t>73133205</t>
+  </si>
+  <si>
+    <t>MANUEL EMILIO AVILEZ ACOSTA</t>
+  </si>
+  <si>
+    <t>1909</t>
+  </si>
+  <si>
+    <t>9103868</t>
+  </si>
+  <si>
+    <t>LARRY JAVIER ZARZA GONZALEZ</t>
+  </si>
+  <si>
+    <t>1910</t>
+  </si>
+  <si>
+    <t>1911</t>
+  </si>
+  <si>
+    <t>1912</t>
+  </si>
+  <si>
+    <t>2001</t>
+  </si>
+  <si>
+    <t>2002</t>
+  </si>
+  <si>
+    <t>2003</t>
+  </si>
+  <si>
+    <t>2004</t>
+  </si>
+  <si>
+    <t>2005</t>
+  </si>
+  <si>
+    <t>2006</t>
+  </si>
+  <si>
+    <t>2007</t>
+  </si>
+  <si>
+    <t>2008</t>
+  </si>
+  <si>
+    <t>2009</t>
+  </si>
+  <si>
+    <t>2010</t>
+  </si>
+  <si>
+    <t>2011</t>
+  </si>
+  <si>
+    <t>2012</t>
+  </si>
+  <si>
+    <t>2101</t>
+  </si>
+  <si>
+    <t>2102</t>
+  </si>
+  <si>
+    <t>2103</t>
+  </si>
+  <si>
+    <t>2104</t>
+  </si>
+  <si>
+    <t>2105</t>
+  </si>
+  <si>
+    <t>2106</t>
+  </si>
+  <si>
+    <t>2107</t>
+  </si>
+  <si>
+    <t>2108</t>
+  </si>
+  <si>
+    <t>2109</t>
+  </si>
+  <si>
+    <t>2110</t>
+  </si>
+  <si>
+    <t>2111</t>
+  </si>
+  <si>
+    <t>2112</t>
+  </si>
+  <si>
+    <t>2201</t>
+  </si>
+  <si>
+    <t>2202</t>
+  </si>
+  <si>
+    <t>2203</t>
+  </si>
+  <si>
+    <t>2204</t>
+  </si>
+  <si>
+    <t>2205</t>
+  </si>
+  <si>
+    <t>2206</t>
+  </si>
+  <si>
+    <t>2207</t>
+  </si>
+  <si>
+    <t>2208</t>
   </si>
   <si>
     <t>2209</t>
-  </si>
-  <si>
-    <t>73133205</t>
-  </si>
-  <si>
-    <t>MANUEL EMILIO AVILEZ ACOSTA</t>
-  </si>
-  <si>
-    <t>2208</t>
-  </si>
-  <si>
-    <t>2207</t>
-  </si>
-  <si>
-    <t>2206</t>
-  </si>
-  <si>
-    <t>2205</t>
-  </si>
-  <si>
-    <t>2204</t>
-  </si>
-  <si>
-    <t>2203</t>
-  </si>
-  <si>
-    <t>2202</t>
-  </si>
-  <si>
-    <t>2201</t>
-  </si>
-  <si>
-    <t>2112</t>
-  </si>
-  <si>
-    <t>2111</t>
-  </si>
-  <si>
-    <t>2110</t>
-  </si>
-  <si>
-    <t>2109</t>
-  </si>
-  <si>
-    <t>2108</t>
-  </si>
-  <si>
-    <t>2107</t>
-  </si>
-  <si>
-    <t>2106</t>
-  </si>
-  <si>
-    <t>2105</t>
-  </si>
-  <si>
-    <t>2104</t>
-  </si>
-  <si>
-    <t>2103</t>
-  </si>
-  <si>
-    <t>2102</t>
-  </si>
-  <si>
-    <t>2101</t>
-  </si>
-  <si>
-    <t>2012</t>
-  </si>
-  <si>
-    <t>2011</t>
-  </si>
-  <si>
-    <t>2010</t>
-  </si>
-  <si>
-    <t>2009</t>
-  </si>
-  <si>
-    <t>2008</t>
-  </si>
-  <si>
-    <t>2007</t>
-  </si>
-  <si>
-    <t>2006</t>
-  </si>
-  <si>
-    <t>2005</t>
-  </si>
-  <si>
-    <t>2004</t>
-  </si>
-  <si>
-    <t>2003</t>
-  </si>
-  <si>
-    <t>2002</t>
-  </si>
-  <si>
-    <t>2001</t>
-  </si>
-  <si>
-    <t>1912</t>
-  </si>
-  <si>
-    <t>1911</t>
-  </si>
-  <si>
-    <t>1910</t>
-  </si>
-  <si>
-    <t>1909</t>
-  </si>
-  <si>
-    <t>9103868</t>
-  </si>
-  <si>
-    <t>LARRY JAVIER ZARZA GONZALEZ</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -299,7 +284,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -312,9 +299,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -514,23 +499,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -558,10 +543,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -614,7 +599,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E8866F3E-6049-AC0A-7A41-28A619E80F37}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CCA3D995-AEC5-EF76-9FED-0AEE03B654C4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -965,8 +950,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72AC9206-0493-486C-B901-0834AB236D15}">
-  <dimension ref="B2:J99"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2C069BD-EE42-461F-AF97-119248F6B615}">
+  <dimension ref="B2:J95"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
@@ -977,7 +962,7 @@
     <col min="1" max="1" width="3.6328125" customWidth="1"/>
     <col min="2" max="2" width="18.54296875" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.453125" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.54296875" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.1796875" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.36328125" style="2" bestFit="1" customWidth="1"/>
@@ -990,7 +975,7 @@
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
@@ -1035,7 +1020,7 @@
     <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="27"/>
@@ -1067,12 +1052,12 @@
     <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="27"/>
       <c r="E11" s="7">
-        <v>2611250</v>
+        <v>2451250</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -1083,17 +1068,17 @@
     <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="C13" s="5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="8" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="F13" s="5">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
@@ -1120,13 +1105,13 @@
         <v>5</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="I15" s="13" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="J15" s="14" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.35">
@@ -1143,10 +1128,10 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>40000</v>
+        <v>33125</v>
       </c>
       <c r="G16" s="18">
-        <v>1000000</v>
+        <v>828116</v>
       </c>
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
@@ -1157,19 +1142,19 @@
         <v>8</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D17" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F17" s="18">
-        <v>40000</v>
+        <v>33125</v>
       </c>
       <c r="G17" s="18">
-        <v>1000000</v>
+        <v>828116</v>
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
@@ -1186,13 +1171,13 @@
         <v>10</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F18" s="18">
-        <v>40000</v>
+        <v>33125</v>
       </c>
       <c r="G18" s="18">
-        <v>1000000</v>
+        <v>828116</v>
       </c>
       <c r="H18" s="19"/>
       <c r="I18" s="19"/>
@@ -1203,19 +1188,19 @@
         <v>8</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E19" s="16" t="s">
         <v>14</v>
       </c>
       <c r="F19" s="18">
-        <v>40000</v>
+        <v>33125</v>
       </c>
       <c r="G19" s="18">
-        <v>1000000</v>
+        <v>828116</v>
       </c>
       <c r="H19" s="19"/>
       <c r="I19" s="19"/>
@@ -1226,13 +1211,13 @@
         <v>8</v>
       </c>
       <c r="C20" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D20" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E20" s="16" t="s">
         <v>15</v>
-      </c>
-      <c r="D20" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="E20" s="16" t="s">
-        <v>14</v>
       </c>
       <c r="F20" s="18">
         <v>33125</v>
@@ -1249,13 +1234,13 @@
         <v>8</v>
       </c>
       <c r="C21" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="D21" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E21" s="16" t="s">
         <v>15</v>
-      </c>
-      <c r="D21" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="E21" s="16" t="s">
-        <v>17</v>
       </c>
       <c r="F21" s="18">
         <v>33125</v>
@@ -1272,13 +1257,13 @@
         <v>8</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D22" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E22" s="16" t="s">
         <v>16</v>
-      </c>
-      <c r="E22" s="16" t="s">
-        <v>18</v>
       </c>
       <c r="F22" s="18">
         <v>33125</v>
@@ -1295,13 +1280,13 @@
         <v>8</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D23" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E23" s="16" t="s">
         <v>16</v>
-      </c>
-      <c r="E23" s="16" t="s">
-        <v>19</v>
       </c>
       <c r="F23" s="18">
         <v>33125</v>
@@ -1318,13 +1303,13 @@
         <v>8</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F24" s="18">
         <v>33125</v>
@@ -1341,13 +1326,13 @@
         <v>8</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F25" s="18">
         <v>33125</v>
@@ -1364,13 +1349,13 @@
         <v>8</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F26" s="18">
         <v>33125</v>
@@ -1387,13 +1372,13 @@
         <v>8</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="F27" s="18">
         <v>33125</v>
@@ -1410,13 +1395,13 @@
         <v>8</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="F28" s="18">
         <v>33125</v>
@@ -1433,13 +1418,13 @@
         <v>8</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="F29" s="18">
         <v>33125</v>
@@ -1456,13 +1441,13 @@
         <v>8</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="F30" s="18">
         <v>33125</v>
@@ -1479,13 +1464,13 @@
         <v>8</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="F31" s="18">
         <v>33125</v>
@@ -1502,13 +1487,13 @@
         <v>8</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="F32" s="18">
         <v>33125</v>
@@ -1525,13 +1510,13 @@
         <v>8</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="F33" s="18">
         <v>33125</v>
@@ -1548,13 +1533,13 @@
         <v>8</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="F34" s="18">
         <v>33125</v>
@@ -1571,13 +1556,13 @@
         <v>8</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="F35" s="18">
         <v>33125</v>
@@ -1594,13 +1579,13 @@
         <v>8</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="F36" s="18">
         <v>33125</v>
@@ -1617,13 +1602,13 @@
         <v>8</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="F37" s="18">
         <v>33125</v>
@@ -1640,13 +1625,13 @@
         <v>8</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="F38" s="18">
         <v>33125</v>
@@ -1663,13 +1648,13 @@
         <v>8</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="F39" s="18">
         <v>33125</v>
@@ -1686,13 +1671,13 @@
         <v>8</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D40" s="17" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="F40" s="18">
         <v>33125</v>
@@ -1709,13 +1694,13 @@
         <v>8</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E41" s="16" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="F41" s="18">
         <v>33125</v>
@@ -1732,13 +1717,13 @@
         <v>8</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D42" s="17" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E42" s="16" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="F42" s="18">
         <v>33125</v>
@@ -1755,13 +1740,13 @@
         <v>8</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D43" s="17" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E43" s="16" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="F43" s="18">
         <v>33125</v>
@@ -1778,13 +1763,13 @@
         <v>8</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D44" s="17" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E44" s="16" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="F44" s="18">
         <v>33125</v>
@@ -1801,13 +1786,13 @@
         <v>8</v>
       </c>
       <c r="C45" s="16" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D45" s="17" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E45" s="16" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="F45" s="18">
         <v>33125</v>
@@ -1824,13 +1809,13 @@
         <v>8</v>
       </c>
       <c r="C46" s="16" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D46" s="17" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E46" s="16" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="F46" s="18">
         <v>33125</v>
@@ -1847,13 +1832,13 @@
         <v>8</v>
       </c>
       <c r="C47" s="16" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D47" s="17" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E47" s="16" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="F47" s="18">
         <v>33125</v>
@@ -1870,13 +1855,13 @@
         <v>8</v>
       </c>
       <c r="C48" s="16" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D48" s="17" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E48" s="16" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="F48" s="18">
         <v>33125</v>
@@ -1893,13 +1878,13 @@
         <v>8</v>
       </c>
       <c r="C49" s="16" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D49" s="17" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E49" s="16" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="F49" s="18">
         <v>33125</v>
@@ -1916,13 +1901,13 @@
         <v>8</v>
       </c>
       <c r="C50" s="16" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D50" s="17" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E50" s="16" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="F50" s="18">
         <v>33125</v>
@@ -1939,13 +1924,13 @@
         <v>8</v>
       </c>
       <c r="C51" s="16" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D51" s="17" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E51" s="16" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="F51" s="18">
         <v>33125</v>
@@ -1962,13 +1947,13 @@
         <v>8</v>
       </c>
       <c r="C52" s="16" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D52" s="17" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E52" s="16" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="F52" s="18">
         <v>33125</v>
@@ -1985,13 +1970,13 @@
         <v>8</v>
       </c>
       <c r="C53" s="16" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D53" s="17" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E53" s="16" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="F53" s="18">
         <v>33125</v>
@@ -2008,13 +1993,13 @@
         <v>8</v>
       </c>
       <c r="C54" s="16" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D54" s="17" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E54" s="16" t="s">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="F54" s="18">
         <v>33125</v>
@@ -2031,13 +2016,13 @@
         <v>8</v>
       </c>
       <c r="C55" s="16" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D55" s="17" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E55" s="16" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="F55" s="18">
         <v>33125</v>
@@ -2054,13 +2039,13 @@
         <v>8</v>
       </c>
       <c r="C56" s="16" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D56" s="17" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E56" s="16" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="F56" s="18">
         <v>33125</v>
@@ -2077,13 +2062,13 @@
         <v>8</v>
       </c>
       <c r="C57" s="16" t="s">
-        <v>53</v>
+        <v>12</v>
       </c>
       <c r="D57" s="17" t="s">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="E57" s="16" t="s">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="F57" s="18">
         <v>33125</v>
@@ -2100,13 +2085,13 @@
         <v>8</v>
       </c>
       <c r="C58" s="16" t="s">
-        <v>53</v>
+        <v>9</v>
       </c>
       <c r="D58" s="17" t="s">
-        <v>54</v>
+        <v>10</v>
       </c>
       <c r="E58" s="16" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="F58" s="18">
         <v>33125</v>
@@ -2123,13 +2108,13 @@
         <v>8</v>
       </c>
       <c r="C59" s="16" t="s">
-        <v>53</v>
+        <v>12</v>
       </c>
       <c r="D59" s="17" t="s">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="E59" s="16" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="F59" s="18">
         <v>33125</v>
@@ -2146,13 +2131,13 @@
         <v>8</v>
       </c>
       <c r="C60" s="16" t="s">
-        <v>53</v>
+        <v>9</v>
       </c>
       <c r="D60" s="17" t="s">
-        <v>54</v>
+        <v>10</v>
       </c>
       <c r="E60" s="16" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="F60" s="18">
         <v>33125</v>
@@ -2169,13 +2154,13 @@
         <v>8</v>
       </c>
       <c r="C61" s="16" t="s">
-        <v>53</v>
+        <v>12</v>
       </c>
       <c r="D61" s="17" t="s">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="E61" s="16" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="F61" s="18">
         <v>33125</v>
@@ -2192,13 +2177,13 @@
         <v>8</v>
       </c>
       <c r="C62" s="16" t="s">
-        <v>53</v>
+        <v>9</v>
       </c>
       <c r="D62" s="17" t="s">
-        <v>54</v>
+        <v>10</v>
       </c>
       <c r="E62" s="16" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="F62" s="18">
         <v>33125</v>
@@ -2215,13 +2200,13 @@
         <v>8</v>
       </c>
       <c r="C63" s="16" t="s">
-        <v>53</v>
+        <v>12</v>
       </c>
       <c r="D63" s="17" t="s">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="E63" s="16" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="F63" s="18">
         <v>33125</v>
@@ -2238,13 +2223,13 @@
         <v>8</v>
       </c>
       <c r="C64" s="16" t="s">
-        <v>53</v>
+        <v>9</v>
       </c>
       <c r="D64" s="17" t="s">
-        <v>54</v>
+        <v>10</v>
       </c>
       <c r="E64" s="16" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="F64" s="18">
         <v>33125</v>
@@ -2261,13 +2246,13 @@
         <v>8</v>
       </c>
       <c r="C65" s="16" t="s">
-        <v>53</v>
+        <v>12</v>
       </c>
       <c r="D65" s="17" t="s">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="E65" s="16" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="F65" s="18">
         <v>33125</v>
@@ -2284,13 +2269,13 @@
         <v>8</v>
       </c>
       <c r="C66" s="16" t="s">
-        <v>53</v>
+        <v>9</v>
       </c>
       <c r="D66" s="17" t="s">
-        <v>54</v>
+        <v>10</v>
       </c>
       <c r="E66" s="16" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="F66" s="18">
         <v>33125</v>
@@ -2307,13 +2292,13 @@
         <v>8</v>
       </c>
       <c r="C67" s="16" t="s">
-        <v>53</v>
+        <v>12</v>
       </c>
       <c r="D67" s="17" t="s">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="E67" s="16" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="F67" s="18">
         <v>33125</v>
@@ -2330,13 +2315,13 @@
         <v>8</v>
       </c>
       <c r="C68" s="16" t="s">
-        <v>53</v>
+        <v>9</v>
       </c>
       <c r="D68" s="17" t="s">
-        <v>54</v>
+        <v>10</v>
       </c>
       <c r="E68" s="16" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="F68" s="18">
         <v>33125</v>
@@ -2353,13 +2338,13 @@
         <v>8</v>
       </c>
       <c r="C69" s="16" t="s">
-        <v>53</v>
+        <v>12</v>
       </c>
       <c r="D69" s="17" t="s">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="E69" s="16" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="F69" s="18">
         <v>33125</v>
@@ -2376,13 +2361,13 @@
         <v>8</v>
       </c>
       <c r="C70" s="16" t="s">
-        <v>53</v>
+        <v>9</v>
       </c>
       <c r="D70" s="17" t="s">
-        <v>54</v>
+        <v>10</v>
       </c>
       <c r="E70" s="16" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="F70" s="18">
         <v>33125</v>
@@ -2399,13 +2384,13 @@
         <v>8</v>
       </c>
       <c r="C71" s="16" t="s">
-        <v>53</v>
+        <v>12</v>
       </c>
       <c r="D71" s="17" t="s">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="E71" s="16" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="F71" s="18">
         <v>33125</v>
@@ -2422,13 +2407,13 @@
         <v>8</v>
       </c>
       <c r="C72" s="16" t="s">
-        <v>53</v>
+        <v>9</v>
       </c>
       <c r="D72" s="17" t="s">
-        <v>54</v>
+        <v>10</v>
       </c>
       <c r="E72" s="16" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="F72" s="18">
         <v>33125</v>
@@ -2445,13 +2430,13 @@
         <v>8</v>
       </c>
       <c r="C73" s="16" t="s">
-        <v>53</v>
+        <v>12</v>
       </c>
       <c r="D73" s="17" t="s">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="E73" s="16" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="F73" s="18">
         <v>33125</v>
@@ -2468,13 +2453,13 @@
         <v>8</v>
       </c>
       <c r="C74" s="16" t="s">
-        <v>53</v>
+        <v>9</v>
       </c>
       <c r="D74" s="17" t="s">
-        <v>54</v>
+        <v>10</v>
       </c>
       <c r="E74" s="16" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="F74" s="18">
         <v>33125</v>
@@ -2491,13 +2476,13 @@
         <v>8</v>
       </c>
       <c r="C75" s="16" t="s">
-        <v>53</v>
+        <v>12</v>
       </c>
       <c r="D75" s="17" t="s">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="E75" s="16" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="F75" s="18">
         <v>33125</v>
@@ -2514,13 +2499,13 @@
         <v>8</v>
       </c>
       <c r="C76" s="16" t="s">
-        <v>53</v>
+        <v>9</v>
       </c>
       <c r="D76" s="17" t="s">
-        <v>54</v>
+        <v>10</v>
       </c>
       <c r="E76" s="16" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="F76" s="18">
         <v>33125</v>
@@ -2537,13 +2522,13 @@
         <v>8</v>
       </c>
       <c r="C77" s="16" t="s">
-        <v>53</v>
+        <v>12</v>
       </c>
       <c r="D77" s="17" t="s">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="E77" s="16" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="F77" s="18">
         <v>33125</v>
@@ -2560,13 +2545,13 @@
         <v>8</v>
       </c>
       <c r="C78" s="16" t="s">
-        <v>53</v>
+        <v>9</v>
       </c>
       <c r="D78" s="17" t="s">
-        <v>54</v>
+        <v>10</v>
       </c>
       <c r="E78" s="16" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="F78" s="18">
         <v>33125</v>
@@ -2583,13 +2568,13 @@
         <v>8</v>
       </c>
       <c r="C79" s="16" t="s">
-        <v>53</v>
+        <v>12</v>
       </c>
       <c r="D79" s="17" t="s">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="E79" s="16" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="F79" s="18">
         <v>33125</v>
@@ -2606,13 +2591,13 @@
         <v>8</v>
       </c>
       <c r="C80" s="16" t="s">
-        <v>53</v>
+        <v>9</v>
       </c>
       <c r="D80" s="17" t="s">
-        <v>54</v>
+        <v>10</v>
       </c>
       <c r="E80" s="16" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="F80" s="18">
         <v>33125</v>
@@ -2629,13 +2614,13 @@
         <v>8</v>
       </c>
       <c r="C81" s="16" t="s">
-        <v>53</v>
+        <v>12</v>
       </c>
       <c r="D81" s="17" t="s">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="E81" s="16" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="F81" s="18">
         <v>33125</v>
@@ -2652,13 +2637,13 @@
         <v>8</v>
       </c>
       <c r="C82" s="16" t="s">
-        <v>53</v>
+        <v>9</v>
       </c>
       <c r="D82" s="17" t="s">
-        <v>54</v>
+        <v>10</v>
       </c>
       <c r="E82" s="16" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="F82" s="18">
         <v>33125</v>
@@ -2675,13 +2660,13 @@
         <v>8</v>
       </c>
       <c r="C83" s="16" t="s">
-        <v>53</v>
+        <v>12</v>
       </c>
       <c r="D83" s="17" t="s">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="E83" s="16" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="F83" s="18">
         <v>33125</v>
@@ -2698,13 +2683,13 @@
         <v>8</v>
       </c>
       <c r="C84" s="16" t="s">
-        <v>53</v>
+        <v>9</v>
       </c>
       <c r="D84" s="17" t="s">
-        <v>54</v>
+        <v>10</v>
       </c>
       <c r="E84" s="16" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="F84" s="18">
         <v>33125</v>
@@ -2721,13 +2706,13 @@
         <v>8</v>
       </c>
       <c r="C85" s="16" t="s">
-        <v>53</v>
+        <v>12</v>
       </c>
       <c r="D85" s="17" t="s">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="E85" s="16" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="F85" s="18">
         <v>33125</v>
@@ -2744,13 +2729,13 @@
         <v>8</v>
       </c>
       <c r="C86" s="16" t="s">
-        <v>53</v>
+        <v>9</v>
       </c>
       <c r="D86" s="17" t="s">
-        <v>54</v>
+        <v>10</v>
       </c>
       <c r="E86" s="16" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="F86" s="18">
         <v>33125</v>
@@ -2767,13 +2752,13 @@
         <v>8</v>
       </c>
       <c r="C87" s="16" t="s">
-        <v>53</v>
+        <v>12</v>
       </c>
       <c r="D87" s="17" t="s">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="E87" s="16" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F87" s="18">
         <v>33125</v>
@@ -2790,13 +2775,13 @@
         <v>8</v>
       </c>
       <c r="C88" s="16" t="s">
-        <v>53</v>
+        <v>9</v>
       </c>
       <c r="D88" s="17" t="s">
-        <v>54</v>
+        <v>10</v>
       </c>
       <c r="E88" s="16" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F88" s="18">
         <v>33125</v>
@@ -2809,148 +2794,56 @@
       <c r="J88" s="20"/>
     </row>
     <row r="89" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B89" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C89" s="16" t="s">
-        <v>53</v>
-      </c>
-      <c r="D89" s="17" t="s">
-        <v>54</v>
-      </c>
-      <c r="E89" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="F89" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G89" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H89" s="19"/>
-      <c r="I89" s="19"/>
-      <c r="J89" s="20"/>
-    </row>
-    <row r="90" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B90" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C90" s="16" t="s">
-        <v>53</v>
-      </c>
-      <c r="D90" s="17" t="s">
-        <v>54</v>
-      </c>
-      <c r="E90" s="16" t="s">
+      <c r="B89" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C89" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="D89" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="E89" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="F90" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G90" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H90" s="19"/>
-      <c r="I90" s="19"/>
-      <c r="J90" s="20"/>
-    </row>
-    <row r="91" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B91" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C91" s="16" t="s">
-        <v>53</v>
-      </c>
-      <c r="D91" s="17" t="s">
-        <v>54</v>
-      </c>
-      <c r="E91" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="F91" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G91" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H91" s="19"/>
-      <c r="I91" s="19"/>
-      <c r="J91" s="20"/>
-    </row>
-    <row r="92" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B92" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C92" s="16" t="s">
-        <v>53</v>
-      </c>
-      <c r="D92" s="17" t="s">
-        <v>54</v>
-      </c>
-      <c r="E92" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="F92" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G92" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H92" s="19"/>
-      <c r="I92" s="19"/>
-      <c r="J92" s="20"/>
-    </row>
-    <row r="93" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B93" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C93" s="22" t="s">
-        <v>53</v>
-      </c>
-      <c r="D93" s="23" t="s">
-        <v>54</v>
-      </c>
-      <c r="E93" s="22" t="s">
-        <v>52</v>
-      </c>
-      <c r="F93" s="24">
-        <v>33125</v>
-      </c>
-      <c r="G93" s="24">
-        <v>828116</v>
-      </c>
-      <c r="H93" s="25"/>
-      <c r="I93" s="25"/>
-      <c r="J93" s="26"/>
-    </row>
-    <row r="98" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B98" s="32" t="s">
-        <v>64</v>
-      </c>
-      <c r="C98" s="32"/>
-      <c r="H98" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="I98" s="1"/>
-      <c r="J98" s="1"/>
-    </row>
-    <row r="99" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B99" s="32" t="s">
-        <v>63</v>
-      </c>
-      <c r="C99" s="32"/>
-      <c r="H99" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="I99" s="1"/>
-      <c r="J99" s="1"/>
+      <c r="F89" s="24">
+        <v>33125</v>
+      </c>
+      <c r="G89" s="24">
+        <v>828116</v>
+      </c>
+      <c r="H89" s="25"/>
+      <c r="I89" s="25"/>
+      <c r="J89" s="26"/>
+    </row>
+    <row r="94" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B94" s="32" t="s">
+        <v>59</v>
+      </c>
+      <c r="C94" s="32"/>
+      <c r="H94" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="I94" s="1"/>
+      <c r="J94" s="1"/>
+    </row>
+    <row r="95" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B95" s="32" t="s">
+        <v>58</v>
+      </c>
+      <c r="C95" s="32"/>
+      <c r="H95" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="I95" s="1"/>
+      <c r="J95" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B99:C99"/>
-    <mergeCell ref="B98:C98"/>
-    <mergeCell ref="H99:J99"/>
-    <mergeCell ref="H98:J98"/>
+    <mergeCell ref="B95:C95"/>
+    <mergeCell ref="B94:C94"/>
+    <mergeCell ref="H95:J95"/>
+    <mergeCell ref="H94:J94"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="D2:J5"/>
